--- a/biology/Botanique/Étoile_de_France_(rose)/Étoile_de_France_(rose).xlsx
+++ b/biology/Botanique/Étoile_de_France_(rose)/Étoile_de_France_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_France_(rose)</t>
+          <t>Étoile_de_France_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽÉtoile de France’ est un cultivar de rosier obtenu en 1903 par le rosiériste lyonnais Joseph Pernet-Ducher et mis au commerce en 1904; et en 1905 à l'étranger. Il est issu d'un croisement 'Madame Abel Chatenay' (Pernet-Ducher, 1894) × 'Fisher Holmes' (Verdier fils, 1865)[1]. Ce rosier très apprécié  au début du XXe siècle est peu référencé aujourd'hui.
+ʽÉtoile de France’ est un cultivar de rosier obtenu en 1903 par le rosiériste lyonnais Joseph Pernet-Ducher et mis au commerce en 1904; et en 1905 à l'étranger. Il est issu d'un croisement 'Madame Abel Chatenay' (Pernet-Ducher, 1894) × 'Fisher Holmes' (Verdier fils, 1865). Ce rosier très apprécié  au début du XXe siècle est peu référencé aujourd'hui.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_France_(rose)</t>
+          <t>Étoile_de_France_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété d'hybride de thé présente un petit buisson érigé au feuillage cuivré, pouvant atteindre de 80 cm à 110 cm[2]. Ses rameaux possèdent des épines crochues. Ses fleurs sont rouge foncé au cœur parfois plus pâle. Elles sont de moyennes à grosses, très pleines (26-40 pétales), en forme de coupe, fleurissant plutôt en solitaire. La floraison est remontante[1]. Sa floribondité est généreuse. Son coloris, venu de son parent 'Fisher &amp; Holmes', a été remarqué dès le début pour son caractère éclatant et velouté.  Cette rose est distinguée dès l'origine pour les massifs et la fleur coupée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété d'hybride de thé présente un petit buisson érigé au feuillage cuivré, pouvant atteindre de 80 cm à 110 cm. Ses rameaux possèdent des épines crochues. Ses fleurs sont rouge foncé au cœur parfois plus pâle. Elles sont de moyennes à grosses, très pleines (26-40 pétales), en forme de coupe, fleurissant plutôt en solitaire. La floraison est remontante. Sa floribondité est généreuse. Son coloris, venu de son parent 'Fisher &amp; Holmes', a été remarqué dès le début pour son caractère éclatant et velouté.  Cette rose est distinguée dès l'origine pour les massifs et la fleur coupée.
 Ce rosier supporte des hivers à -15° C. On peut l'admirer à la roseraie San Giovanni de Trieste. Elle est commercialisée dans quelques catalogues, car elle connaît un regain d'intérêt depuis le début du XXIe siècle.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_France_(rose)</t>
+          <t>Étoile_de_France_(rose)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">ʽÉtoile de France’ a donné naissance à 'Eugène Boullet' (Pernet-Ducher, 1909) par croisement avec 'Laurent Carle' (Pernet-Ducher, 1907).
 </t>
